--- a/plan/キャラクター仕様書.xlsx
+++ b/plan/キャラクター仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroyuki ohkubo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroyuki ohkubo\Desktop\DarknessHunt\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="2190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="2190"/>
   </bookViews>
   <sheets>
     <sheet name="基本概要" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>└主にゲーム上の動作と、用意するアニメーションについてまとめていきます。</t>
     <rPh sb="1" eb="2">
@@ -927,6 +927,50 @@
     <rPh sb="5" eb="7">
       <t>ジテン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆8/28時点</t>
+    <rPh sb="5" eb="7">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要とされるアニメーションを</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一通り作成。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトトオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・stay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・jump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・sliding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・down</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1792,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
@@ -4636,10 +4680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ25"/>
+  <dimension ref="A1:AZ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1796875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5318,7 +5362,9 @@
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="13"/>
+      <c r="X17" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
@@ -5346,54 +5392,56 @@
       <c r="AW17" s="15"/>
       <c r="AX17" s="5"/>
     </row>
-    <row r="18" spans="3:50" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="23"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="18"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="15"/>
       <c r="AX18" s="5"/>
     </row>
     <row r="19" spans="3:50" x14ac:dyDescent="0.2">
@@ -5418,7 +5466,9 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="12"/>
-      <c r="X19" s="13"/>
+      <c r="X19" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
@@ -5468,7 +5518,9 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="12"/>
-      <c r="X20" s="13"/>
+      <c r="X20" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
@@ -5518,7 +5570,9 @@
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
       <c r="W21" s="12"/>
-      <c r="X21" s="13"/>
+      <c r="X21" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
@@ -5568,7 +5622,9 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="12"/>
-      <c r="X22" s="13"/>
+      <c r="X22" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
@@ -5618,7 +5674,9 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="12"/>
-      <c r="X23" s="13"/>
+      <c r="X23" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
@@ -5646,105 +5704,457 @@
       <c r="AW23" s="15"/>
       <c r="AX23" s="5"/>
     </row>
-    <row r="24" spans="3:50" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="23"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
-      <c r="AW24" s="18"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="15"/>
       <c r="AX24" s="5"/>
     </row>
-    <row r="25" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:50" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="18"/>
       <c r="AX25" s="5"/>
+    </row>
+    <row r="26" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="C26" s="5"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="5"/>
+    </row>
+    <row r="27" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="C27" s="5"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="5"/>
+    </row>
+    <row r="28" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="C28" s="5"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="5"/>
+    </row>
+    <row r="29" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="C29" s="5"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="5"/>
+    </row>
+    <row r="30" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="C30" s="5"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="5"/>
+    </row>
+    <row r="31" spans="3:50" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="17"/>
+      <c r="AQ31" s="23"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="17"/>
+      <c r="AT31" s="17"/>
+      <c r="AU31" s="17"/>
+      <c r="AV31" s="17"/>
+      <c r="AW31" s="18"/>
+      <c r="AX31" s="5"/>
+    </row>
+    <row r="32" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
